--- a/Week_1/poke_mart_filled.xlsx
+++ b/Week_1/poke_mart_filled.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Dropbox\CodingTemple\CT_Coursework\Week_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655C1735-7494-48F2-87CA-AE8688F09ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFB7535-6DE5-4D6A-A2C6-5CBB8AD157F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2625" yWindow="1440" windowWidth="24150" windowHeight="13260" xr2:uid="{E08D3CCF-C39B-499D-B4FA-405E21B99C60}"/>
   </bookViews>
@@ -117,7 +117,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +161,21 @@
       <b/>
       <i/>
       <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -260,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -275,56 +290,71 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <i/>
@@ -339,9 +369,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -368,14 +395,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -391,21 +410,17 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DF0CB0E9-FF3C-4FC1-8A20-2A68AC372383}" name="Table2" displayName="Table2" ref="A1:E16" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:E16" xr:uid="{DF0CB0E9-FF3C-4FC1-8A20-2A68AC372383}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9432D390-4BE6-46A2-AF06-35B5662DB792}" name="Item" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{C634F534-7F6C-4921-B986-F9A1A19F110D}" name="Item Price" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{86A44D7D-C360-46AA-B7B8-DEE485D4FFE7}" name="Shopping Cart" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{D89415BC-8CBE-406C-A6F6-ECEAD6F42858}" name=" " dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{9432D390-4BE6-46A2-AF06-35B5662DB792}" name="Item" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{C634F534-7F6C-4921-B986-F9A1A19F110D}" name="Item Price" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{86A44D7D-C360-46AA-B7B8-DEE485D4FFE7}" name="Shopping Cart" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{D89415BC-8CBE-406C-A6F6-ECEAD6F42858}" name=" " dataDxfId="1">
       <calculatedColumnFormula>IF(C2&gt;0,"P","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7997ADEB-3E05-45BF-BABA-10626017E4D5}" name="Item Subtotal" dataDxfId="4">
+    <tableColumn id="4" xr3:uid="{7997ADEB-3E05-45BF-BABA-10626017E4D5}" name="Item Subtotal" dataDxfId="0">
       <calculatedColumnFormula>IF(C2&lt;&gt;"",B2*C2,"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -710,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04B76D4-CA05-455D-9A55-89C496D85291}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,24 +736,24 @@
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="15" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:5" s="14" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -746,34 +761,32 @@
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="25">
         <v>200</v>
       </c>
-      <c r="C2" s="1">
-        <v>10</v>
-      </c>
-      <c r="D2" s="17" t="str">
+      <c r="C2" s="1"/>
+      <c r="D2" s="16" t="str">
         <f t="shared" ref="D2:D16" si="0">IF(C2&gt;0,"P","")</f>
-        <v>P</v>
-      </c>
-      <c r="E2" s="21">
+        <v/>
+      </c>
+      <c r="E2" s="20" t="str">
         <f t="shared" ref="E2:E16" si="1">IF(C2&lt;&gt;"",B2*C2,"")</f>
-        <v>2000</v>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="25">
         <v>600</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E3" s="21" t="str">
+      <c r="D3" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E3" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -782,17 +795,17 @@
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="25">
         <v>1000</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="17" t="str">
+      <c r="D4" s="16" t="str">
         <f t="shared" si="0"/>
         <v>P</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="20">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
@@ -801,15 +814,15 @@
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="25">
         <v>300</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E5" s="21" t="str">
+      <c r="D5" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E5" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -818,15 +831,15 @@
       <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <v>700</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E6" s="21" t="str">
+      <c r="D6" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E6" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -835,15 +848,15 @@
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="25">
         <v>2500</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E7" s="21" t="str">
+      <c r="D7" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E7" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -852,17 +865,17 @@
       <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="25">
         <v>100</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="17" t="str">
+      <c r="D8" s="16" t="str">
         <f t="shared" si="0"/>
         <v>P</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="20">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -871,15 +884,15 @@
       <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="25">
         <v>200</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E9" s="21" t="str">
+      <c r="D9" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E9" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -888,17 +901,17 @@
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="25">
         <v>250</v>
       </c>
       <c r="C10" s="1">
         <v>4</v>
       </c>
-      <c r="D10" s="17" t="str">
+      <c r="D10" s="16" t="str">
         <f t="shared" si="0"/>
         <v>P</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="20">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
@@ -907,15 +920,15 @@
       <c r="A11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="25">
         <v>1500</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E11" s="21" t="str">
+      <c r="D11" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E11" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -924,15 +937,15 @@
       <c r="A12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="25">
         <v>3000</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E12" s="21" t="str">
+      <c r="D12" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E12" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -941,17 +954,17 @@
       <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="25">
         <v>600</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="17" t="str">
+      <c r="D13" s="16" t="str">
         <f t="shared" si="0"/>
         <v>P</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="20">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
@@ -960,15 +973,15 @@
       <c r="A14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="25">
         <v>350</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E14" s="21" t="str">
+      <c r="D14" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E14" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -977,15 +990,15 @@
       <c r="A15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="25">
         <v>700</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E15" s="21" t="str">
+      <c r="D15" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E15" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -994,50 +1007,50 @@
       <c r="A16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="25">
         <v>550</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E16" s="21" t="str">
+      <c r="D16" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E16" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
     </row>
     <row r="18" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="25">
+      <c r="C19" s="24">
         <f>SUM(C2:C16)</f>
-        <v>18</v>
-      </c>
-      <c r="D19" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="21">
         <f>SUM(E2:E16)</f>
-        <v>5700</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1047,26 +1060,36 @@
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="str">
         <f>IF(E20&gt;0,"10%","0")</f>
-        <v>10%</v>
-      </c>
-      <c r="D20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="22">
         <f>IF(C19&gt;9,E19*0.1,0)</f>
-        <v>570</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="23">
         <f>E19-E20</f>
-        <v>5130</v>
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="28" t="str">
+        <f>IF(C2&gt;9,"Premiere Balls","")</f>
+        <v/>
+      </c>
+      <c r="E23" s="27" t="str">
+        <f>IF(C2&gt;9,ROUNDDOWN(C2/10,0),"")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
